--- a/FL-gt-structure/ig/StructureDefinition-fr-core-patient.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-02T22:07:39+00:00</t>
+    <t>2025-12-02T20:15:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-patient.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:15:58+00:00</t>
+    <t>2025-12-02T20:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-patient.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:49:48+00:00</t>
+    <t>2025-12-02T21:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-patient.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T14:08:03+00:00</t>
+    <t>2026-01-22T11:51:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-patient.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T11:51:24+00:00</t>
+    <t>2026-01-22T13:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-patient.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5343" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5343" uniqueCount="695">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:05:19+00:00</t>
+    <t>2026-01-22T13:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Patient|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -473,6 +473,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Patient.meta.security</t>
   </si>
   <si>
@@ -638,7 +641,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -658,7 +661,7 @@
     <t>identityReliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -676,7 +679,7 @@
     <t>deathPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -694,7 +697,7 @@
     <t>birthDateUpdateIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -759,7 +762,7 @@
     <t>Patient.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -782,7 +785,7 @@
     <t>multipleBirth</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.multipleBirth}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.multipleBirth|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -898,7 +901,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-identifier-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1166,7 +1169,7 @@
     <t>La valeur old permet d'identifier des IPP désactivés (en cas de fusion d'identité pour résoudre des problèmes de doublonnage par exemple)</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-identifier-use-pi</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-identifier-use-pi|2.2.0-ballot</t>
   </si>
   <si>
     <t>Patient.identifier:PI.type</t>
@@ -1269,7 +1272,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1535,7 +1538,7 @@
     <t>birth-list-given-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1569,7 +1572,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1609,7 +1612,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender|2.2.0-ballot</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -1713,7 +1716,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.2.0-ballot</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -1816,7 +1819,7 @@
     <t>contactIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1834,7 +1837,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1895,7 +1898,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.2.0-ballot</t>
   </si>
   <si>
     <t>Patient.contact.relationship:relationType</t>
@@ -1907,7 +1910,7 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
@@ -2099,7 +2102,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|PractitionerRole)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2123,7 +2126,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|Organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2534,7 +2537,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="147.546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2549,7 +2552,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.48828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.99609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.65625" customWidth="true" bestFit="true"/>
@@ -3788,7 +3791,7 @@
         <v>82</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>82</v>
@@ -3859,10 +3862,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3885,16 +3888,16 @@
         <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3920,13 +3923,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3944,7 +3947,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3976,10 +3979,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -4002,16 +4005,16 @@
         <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -4037,13 +4040,13 @@
         <v>82</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>82</v>
@@ -4061,7 +4064,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -4093,10 +4096,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4122,13 +4125,13 @@
         <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4178,7 +4181,7 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -4210,10 +4213,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4236,16 +4239,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4271,13 +4274,13 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
@@ -4295,7 +4298,7 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4327,14 +4330,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4353,16 +4356,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4412,7 +4415,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4427,7 +4430,7 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>82</v>
@@ -4444,14 +4447,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4470,16 +4473,16 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4529,7 +4532,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4544,7 +4547,7 @@
         <v>82</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>82</v>
@@ -4561,10 +4564,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4590,10 +4593,10 @@
         <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4642,7 +4645,7 @@
         <v>117</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4674,13 +4677,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>82</v>
@@ -4690,7 +4693,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
@@ -4702,13 +4705,13 @@
         <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4759,7 +4762,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4768,7 +4771,7 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>119</v>
@@ -4791,13 +4794,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>82</v>
@@ -4819,13 +4822,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4876,7 +4879,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4885,7 +4888,7 @@
         <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>119</v>
@@ -4908,13 +4911,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>82</v>
@@ -4936,13 +4939,13 @@
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4993,7 +4996,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5002,7 +5005,7 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>119</v>
@@ -5025,13 +5028,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>82</v>
@@ -5053,13 +5056,13 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5110,7 +5113,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5119,7 +5122,7 @@
         <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>119</v>
@@ -5142,13 +5145,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>82</v>
@@ -5170,13 +5173,13 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5227,7 +5230,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5259,10 +5262,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5351,7 +5354,7 @@
         <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>82</v>
@@ -5374,10 +5377,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5403,10 +5406,10 @@
         <v>111</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5489,10 +5492,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5518,13 +5521,13 @@
         <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5532,7 +5535,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>82</v>
@@ -5574,7 +5577,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>90</v>
@@ -5589,7 +5592,7 @@
         <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>82</v>
@@ -5606,10 +5609,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5632,13 +5635,13 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5689,7 +5692,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5698,13 +5701,13 @@
         <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
@@ -5721,13 +5724,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5749,13 +5752,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5806,7 +5809,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5815,7 +5818,7 @@
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>119</v>
@@ -5838,10 +5841,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5867,16 +5870,16 @@
         <v>111</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5925,7 +5928,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5940,7 +5943,7 @@
         <v>119</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
@@ -5957,10 +5960,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5983,17 +5986,17 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -6030,10 +6033,10 @@
         <v>82</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>82</v>
@@ -6042,7 +6045,7 @@
         <v>117</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6057,16 +6060,16 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6074,10 +6077,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6189,10 +6192,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6306,10 +6309,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6332,19 +6335,19 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6369,13 +6372,13 @@
         <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
@@ -6393,7 +6396,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6408,7 +6411,7 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
@@ -6417,7 +6420,7 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6425,10 +6428,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6451,19 +6454,19 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6488,11 +6491,11 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -6510,7 +6513,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6525,7 +6528,7 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
@@ -6534,7 +6537,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6542,10 +6545,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6571,16 +6574,16 @@
         <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6593,7 +6596,7 @@
         <v>82</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>82</v>
@@ -6629,7 +6632,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6644,7 +6647,7 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
@@ -6653,7 +6656,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6661,10 +6664,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6690,13 +6693,13 @@
         <v>104</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6710,7 +6713,7 @@
         <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>82</v>
@@ -6746,7 +6749,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6761,7 +6764,7 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
@@ -6770,7 +6773,7 @@
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6778,10 +6781,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6804,13 +6807,13 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6861,7 +6864,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6876,7 +6879,7 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
@@ -6885,7 +6888,7 @@
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6893,10 +6896,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6919,16 +6922,16 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6978,7 +6981,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6993,7 +6996,7 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
@@ -7002,7 +7005,7 @@
         <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7010,13 +7013,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>82</v>
@@ -7038,17 +7041,17 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7097,7 +7100,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7112,16 +7115,16 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7129,10 +7132,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7244,10 +7247,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7361,10 +7364,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7387,19 +7390,19 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7409,7 +7412,7 @@
         <v>82</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>82</v>
@@ -7424,13 +7427,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7448,7 +7451,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7463,7 +7466,7 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7472,7 +7475,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7480,10 +7483,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7506,19 +7509,19 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7528,7 +7531,7 @@
         <v>82</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>82</v>
@@ -7543,11 +7546,11 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7565,7 +7568,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7580,7 +7583,7 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -7589,7 +7592,7 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7597,10 +7600,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7626,16 +7629,16 @@
         <v>132</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7645,10 +7648,10 @@
         <v>82</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>82</v>
@@ -7684,7 +7687,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7699,7 +7702,7 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -7708,7 +7711,7 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7716,10 +7719,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7745,13 +7748,13 @@
         <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7765,7 +7768,7 @@
         <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>82</v>
@@ -7801,7 +7804,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7816,7 +7819,7 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
@@ -7825,7 +7828,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7833,10 +7836,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7859,13 +7862,13 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7916,7 +7919,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7931,7 +7934,7 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
@@ -7940,7 +7943,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7948,10 +7951,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7974,16 +7977,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8033,7 +8036,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8048,7 +8051,7 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
@@ -8057,7 +8060,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8065,13 +8068,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>82</v>
@@ -8093,17 +8096,17 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8152,7 +8155,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8167,16 +8170,16 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8184,10 +8187,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8299,10 +8302,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8416,10 +8419,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8442,19 +8445,19 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8464,7 +8467,7 @@
         <v>82</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>82</v>
@@ -8479,13 +8482,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8503,7 +8506,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8518,7 +8521,7 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
@@ -8527,7 +8530,7 @@
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8535,10 +8538,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8561,19 +8564,19 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8583,7 +8586,7 @@
         <v>82</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>82</v>
@@ -8598,11 +8601,11 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8620,7 +8623,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8635,7 +8638,7 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
@@ -8644,7 +8647,7 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8652,10 +8655,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8681,16 +8684,16 @@
         <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8700,10 +8703,10 @@
         <v>82</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>82</v>
@@ -8739,7 +8742,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8754,7 +8757,7 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8763,7 +8766,7 @@
         <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8771,10 +8774,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8800,13 +8803,13 @@
         <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8820,7 +8823,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -8856,7 +8859,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8871,7 +8874,7 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8880,7 +8883,7 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8888,10 +8891,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8914,13 +8917,13 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8971,7 +8974,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8986,7 +8989,7 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
@@ -8995,7 +8998,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9003,10 +9006,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9029,16 +9032,16 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9088,7 +9091,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9103,7 +9106,7 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>82</v>
@@ -9112,7 +9115,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9120,13 +9123,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>82</v>
@@ -9148,17 +9151,17 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9207,7 +9210,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9222,16 +9225,16 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9239,10 +9242,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9354,10 +9357,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9471,10 +9474,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9497,19 +9500,19 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9519,7 +9522,7 @@
         <v>82</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>82</v>
@@ -9534,13 +9537,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9558,7 +9561,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9573,7 +9576,7 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
@@ -9582,7 +9585,7 @@
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9590,10 +9593,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9616,19 +9619,19 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9638,7 +9641,7 @@
         <v>82</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>82</v>
@@ -9653,11 +9656,11 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9675,7 +9678,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9690,7 +9693,7 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>82</v>
@@ -9699,7 +9702,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9707,10 +9710,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9736,16 +9739,16 @@
         <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9755,10 +9758,10 @@
         <v>82</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>82</v>
@@ -9794,7 +9797,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9809,7 +9812,7 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>82</v>
@@ -9818,7 +9821,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9826,10 +9829,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9855,13 +9858,13 @@
         <v>104</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9875,7 +9878,7 @@
         <v>82</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>82</v>
@@ -9911,7 +9914,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9926,7 +9929,7 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
@@ -9935,7 +9938,7 @@
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9943,10 +9946,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9969,13 +9972,13 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10026,7 +10029,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10041,7 +10044,7 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
@@ -10050,7 +10053,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10058,10 +10061,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10084,16 +10087,16 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10143,7 +10146,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10158,7 +10161,7 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -10167,7 +10170,7 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10175,13 +10178,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>82</v>
@@ -10203,17 +10206,17 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10262,7 +10265,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10277,16 +10280,16 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10294,10 +10297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10409,10 +10412,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10526,10 +10529,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10552,19 +10555,19 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10589,11 +10592,11 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10611,7 +10614,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10626,7 +10629,7 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
@@ -10635,7 +10638,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10643,10 +10646,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10669,19 +10672,19 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10691,7 +10694,7 @@
         <v>82</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>82</v>
@@ -10706,11 +10709,11 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10728,7 +10731,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10743,7 +10746,7 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
@@ -10752,7 +10755,7 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10760,10 +10763,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10789,16 +10792,16 @@
         <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10811,7 +10814,7 @@
         <v>82</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>82</v>
@@ -10847,7 +10850,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10862,7 +10865,7 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
@@ -10871,7 +10874,7 @@
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10879,10 +10882,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10908,13 +10911,13 @@
         <v>104</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10928,7 +10931,7 @@
         <v>82</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>82</v>
@@ -10964,7 +10967,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10979,7 +10982,7 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>82</v>
@@ -10988,7 +10991,7 @@
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10996,10 +10999,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11022,13 +11025,13 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11079,7 +11082,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11094,7 +11097,7 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>82</v>
@@ -11103,7 +11106,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11111,10 +11114,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11137,16 +11140,16 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11196,7 +11199,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11211,7 +11214,7 @@
         <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>82</v>
@@ -11220,7 +11223,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11228,13 +11231,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>82</v>
@@ -11256,17 +11259,17 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11315,7 +11318,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11330,16 +11333,16 @@
         <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11347,10 +11350,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11462,10 +11465,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11579,10 +11582,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11605,19 +11608,19 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11627,7 +11630,7 @@
         <v>82</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>82</v>
@@ -11642,13 +11645,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11666,7 +11669,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11681,7 +11684,7 @@
         <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
@@ -11690,7 +11693,7 @@
         <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11698,10 +11701,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11724,19 +11727,19 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11746,7 +11749,7 @@
         <v>82</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>82</v>
@@ -11761,11 +11764,11 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11783,7 +11786,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11798,7 +11801,7 @@
         <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>82</v>
@@ -11807,7 +11810,7 @@
         <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11815,10 +11818,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11844,16 +11847,16 @@
         <v>132</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11866,7 +11869,7 @@
         <v>82</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>82</v>
@@ -11902,7 +11905,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11917,7 +11920,7 @@
         <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>82</v>
@@ -11926,7 +11929,7 @@
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -11934,10 +11937,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11963,13 +11966,13 @@
         <v>104</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11983,7 +11986,7 @@
         <v>82</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>82</v>
@@ -12019,7 +12022,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12034,7 +12037,7 @@
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
@@ -12043,7 +12046,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12051,10 +12054,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12077,13 +12080,13 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12134,7 +12137,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12149,7 +12152,7 @@
         <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>82</v>
@@ -12158,7 +12161,7 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12166,10 +12169,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12192,16 +12195,16 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12251,7 +12254,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12266,7 +12269,7 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>82</v>
@@ -12275,7 +12278,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12283,10 +12286,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12309,70 +12312,70 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q84" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF84" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q84" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12387,13 +12390,13 @@
         <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
@@ -12404,10 +12407,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12430,19 +12433,19 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12479,7 +12482,7 @@
         <v>82</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AC85" s="2"/>
       <c r="AD85" t="s" s="2">
@@ -12489,7 +12492,7 @@
         <v>117</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12504,16 +12507,16 @@
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12521,13 +12524,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>82</v>
@@ -12549,19 +12552,19 @@
         <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12610,7 +12613,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12625,16 +12628,16 @@
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12642,10 +12645,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12757,10 +12760,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12874,10 +12877,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12900,19 +12903,19 @@
         <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -12922,7 +12925,7 @@
         <v>82</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>82</v>
@@ -12937,13 +12940,13 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
@@ -12961,7 +12964,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12976,7 +12979,7 @@
         <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>82</v>
@@ -12985,7 +12988,7 @@
         <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -12993,10 +12996,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13022,16 +13025,16 @@
         <v>104</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13080,7 +13083,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13095,7 +13098,7 @@
         <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
@@ -13104,7 +13107,7 @@
         <v>82</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13112,14 +13115,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13141,13 +13144,13 @@
         <v>104</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13197,7 +13200,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13212,7 +13215,7 @@
         <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
@@ -13221,7 +13224,7 @@
         <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13229,14 +13232,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13258,13 +13261,13 @@
         <v>104</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13314,7 +13317,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13329,7 +13332,7 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>82</v>
@@ -13338,7 +13341,7 @@
         <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13346,10 +13349,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13375,10 +13378,10 @@
         <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13429,7 +13432,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13444,7 +13447,7 @@
         <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>82</v>
@@ -13453,7 +13456,7 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13461,10 +13464,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13490,10 +13493,10 @@
         <v>104</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13544,7 +13547,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13559,7 +13562,7 @@
         <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>82</v>
@@ -13568,7 +13571,7 @@
         <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13576,10 +13579,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13602,17 +13605,17 @@
         <v>91</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13661,7 +13664,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13676,7 +13679,7 @@
         <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>82</v>
@@ -13685,7 +13688,7 @@
         <v>82</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13693,13 +13696,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>82</v>
@@ -13721,19 +13724,19 @@
         <v>91</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13782,7 +13785,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13797,16 +13800,16 @@
         <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13814,10 +13817,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13929,10 +13932,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14046,13 +14049,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>82</v>
@@ -14074,13 +14077,13 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14163,10 +14166,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14189,19 +14192,19 @@
         <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14211,7 +14214,7 @@
         <v>82</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>82</v>
@@ -14226,13 +14229,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14250,7 +14253,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14265,7 +14268,7 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
@@ -14274,7 +14277,7 @@
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14282,10 +14285,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14311,16 +14314,16 @@
         <v>104</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14369,7 +14372,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14384,7 +14387,7 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>82</v>
@@ -14393,7 +14396,7 @@
         <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14401,14 +14404,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14430,13 +14433,13 @@
         <v>104</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14486,7 +14489,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14501,7 +14504,7 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>82</v>
@@ -14510,7 +14513,7 @@
         <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14518,14 +14521,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14547,13 +14550,13 @@
         <v>104</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14603,7 +14606,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14618,7 +14621,7 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
@@ -14627,7 +14630,7 @@
         <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14635,10 +14638,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14664,10 +14667,10 @@
         <v>104</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14718,7 +14721,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14733,7 +14736,7 @@
         <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>82</v>
@@ -14742,7 +14745,7 @@
         <v>82</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -14750,10 +14753,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14779,10 +14782,10 @@
         <v>104</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14833,7 +14836,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14848,7 +14851,7 @@
         <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
@@ -14857,7 +14860,7 @@
         <v>82</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -14865,10 +14868,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14891,17 +14894,17 @@
         <v>91</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -14950,7 +14953,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -14965,7 +14968,7 @@
         <v>102</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>82</v>
@@ -14974,7 +14977,7 @@
         <v>82</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -14982,10 +14985,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15008,19 +15011,19 @@
         <v>91</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15069,7 +15072,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15084,16 +15087,16 @@
         <v>102</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15101,10 +15104,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15127,19 +15130,19 @@
         <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15164,11 +15167,11 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y108" s="2"/>
       <c r="Z108" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15186,7 +15189,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15201,16 +15204,16 @@
         <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15218,10 +15221,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15244,19 +15247,19 @@
         <v>91</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15305,7 +15308,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15320,27 +15323,27 @@
         <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15363,19 +15366,19 @@
         <v>91</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15424,7 +15427,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15439,7 +15442,7 @@
         <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>108</v>
@@ -15448,7 +15451,7 @@
         <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15456,10 +15459,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15482,19 +15485,19 @@
         <v>91</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15543,7 +15546,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15558,16 +15561,16 @@
         <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15575,10 +15578,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15601,17 +15604,17 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -15636,11 +15639,11 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y112" s="2"/>
       <c r="Z112" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -15658,7 +15661,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15673,16 +15676,16 @@
         <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -15690,10 +15693,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15716,19 +15719,19 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -15777,7 +15780,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -15792,7 +15795,7 @@
         <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>108</v>
@@ -15801,7 +15804,7 @@
         <v>82</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -15809,10 +15812,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15835,19 +15838,19 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -15896,7 +15899,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -15911,7 +15914,7 @@
         <v>102</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>108</v>
@@ -15920,7 +15923,7 @@
         <v>82</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -15928,10 +15931,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15954,19 +15957,19 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16015,7 +16018,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16027,10 +16030,10 @@
         <v>82</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>108</v>
@@ -16047,10 +16050,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16162,10 +16165,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16191,10 +16194,10 @@
         <v>111</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16275,13 +16278,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B118" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="B118" t="s" s="2">
-        <v>567</v>
-      </c>
       <c r="C118" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>82</v>
@@ -16303,13 +16306,13 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -16369,7 +16372,7 @@
         <v>81</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>119</v>
@@ -16392,13 +16395,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>82</v>
@@ -16420,13 +16423,13 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16486,7 +16489,7 @@
         <v>81</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>119</v>
@@ -16509,14 +16512,14 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16538,16 +16541,16 @@
         <v>111</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -16596,7 +16599,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16611,7 +16614,7 @@
         <v>119</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>82</v>
@@ -16628,10 +16631,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16654,17 +16657,17 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -16689,13 +16692,13 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -16711,7 +16714,7 @@
         <v>117</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16726,7 +16729,7 @@
         <v>102</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>108</v>
@@ -16735,7 +16738,7 @@
         <v>82</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -16743,13 +16746,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>82</v>
@@ -16771,17 +16774,17 @@
         <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -16806,11 +16809,11 @@
         <v>82</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>82</v>
@@ -16828,7 +16831,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16843,7 +16846,7 @@
         <v>102</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>108</v>
@@ -16852,7 +16855,7 @@
         <v>82</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -16860,13 +16863,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>82</v>
@@ -16888,17 +16891,17 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -16923,11 +16926,11 @@
         <v>82</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y123" s="2"/>
       <c r="Z123" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>82</v>
@@ -16945,7 +16948,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -16960,7 +16963,7 @@
         <v>102</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>108</v>
@@ -16969,7 +16972,7 @@
         <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -16977,10 +16980,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17003,17 +17006,17 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -17062,7 +17065,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17077,7 +17080,7 @@
         <v>102</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>108</v>
@@ -17086,7 +17089,7 @@
         <v>82</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17094,10 +17097,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17120,19 +17123,19 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
@@ -17181,7 +17184,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17196,7 +17199,7 @@
         <v>102</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>108</v>
@@ -17205,7 +17208,7 @@
         <v>82</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17213,10 +17216,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17239,17 +17242,17 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17298,7 +17301,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17313,7 +17316,7 @@
         <v>102</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>108</v>
@@ -17322,7 +17325,7 @@
         <v>82</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17330,10 +17333,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17356,17 +17359,17 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17391,13 +17394,13 @@
         <v>82</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>82</v>
@@ -17415,7 +17418,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17430,7 +17433,7 @@
         <v>102</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>108</v>
@@ -17439,7 +17442,7 @@
         <v>82</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17447,10 +17450,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17473,17 +17476,17 @@
         <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -17532,7 +17535,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17541,13 +17544,13 @@
         <v>90</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>108</v>
@@ -17556,7 +17559,7 @@
         <v>82</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -17564,10 +17567,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17590,13 +17593,13 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17647,7 +17650,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17662,7 +17665,7 @@
         <v>102</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>108</v>
@@ -17679,10 +17682,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17705,19 +17708,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -17766,7 +17769,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -17781,10 +17784,10 @@
         <v>102</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>82</v>
@@ -17798,10 +17801,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17913,10 +17916,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18030,14 +18033,14 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -18059,16 +18062,16 @@
         <v>111</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N133" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18117,7 +18120,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18132,7 +18135,7 @@
         <v>119</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>82</v>
@@ -18149,10 +18152,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18175,19 +18178,19 @@
         <v>82</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18212,13 +18215,13 @@
         <v>82</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>82</v>
@@ -18236,7 +18239,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>90</v>
@@ -18251,16 +18254,16 @@
         <v>102</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18268,10 +18271,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18294,19 +18297,19 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18355,7 +18358,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18370,16 +18373,16 @@
         <v>102</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -18387,14 +18390,14 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
@@ -18413,16 +18416,16 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
@@ -18472,7 +18475,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18487,7 +18490,7 @@
         <v>102</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>108</v>
@@ -18496,7 +18499,7 @@
         <v>82</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -18504,10 +18507,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18530,19 +18533,19 @@
         <v>91</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
@@ -18591,7 +18594,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18606,10 +18609,10 @@
         <v>102</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>82</v>
@@ -18623,10 +18626,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18649,19 +18652,19 @@
         <v>91</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -18710,7 +18713,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -18725,7 +18728,7 @@
         <v>102</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>108</v>
@@ -18742,10 +18745,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18857,10 +18860,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18974,14 +18977,14 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19003,16 +19006,16 @@
         <v>111</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N141" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19061,7 +19064,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19076,7 +19079,7 @@
         <v>119</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>82</v>
@@ -19093,10 +19096,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19119,16 +19122,16 @@
         <v>91</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -19178,7 +19181,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>90</v>
@@ -19193,7 +19196,7 @@
         <v>102</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>108</v>
@@ -19202,7 +19205,7 @@
         <v>82</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
@@ -19210,10 +19213,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19236,13 +19239,13 @@
         <v>91</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -19269,13 +19272,13 @@
         <v>82</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>82</v>
@@ -19293,7 +19296,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>90</v>
@@ -19308,7 +19311,7 @@
         <v>102</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>108</v>
